--- a/medicine/Psychotrope/Bar_à_chicha/Bar_à_chicha.xlsx
+++ b/medicine/Psychotrope/Bar_à_chicha/Bar_à_chicha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bar_%C3%A0_chicha</t>
+          <t>Bar_à_chicha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bar à chicha est un bar où les clients peuvent fumer le narguilé. C'est un élément de la culture arabe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bar_%C3%A0_chicha</t>
+          <t>Bar_à_chicha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Occident, généralement, les bars à chicha mettent en avant des éléments traditionnels, tels qu'une décoration arabisante, de la musique arabe et des boissons et mets orientaux tels que le café, le thé à la menthe ou le lait fermenté. Certains de ces bars ne disposent pas de licence les habilitant à vendre des boissons alcoolisées généralement par conviction religieuse : la loi islamique interdit aux musulmans de consommer de l'alcool. Bien qu'on puisse y manger, il s'agit plus d'une sorte de café – salon de thé où seule une restauration légère est proposée. Habituellement, pour des raisons d'hygiène, un embout à usage unique est prévu pour chaque utilisateur qui partage un narguilé commun pour la table.
-Aux États-Unis, on les retrouve dans les quartiers où se trouvent des communautés issues de l'immigration[1].
+Aux États-Unis, on les retrouve dans les quartiers où se trouvent des communautés issues de l'immigration.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bar_%C3%A0_chicha</t>
+          <t>Bar_à_chicha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme la chicha, les lieux où celle-ci est consommée font l'objet de certaines interdictions selon les pays. En dépit d'un certain engouement pour ces lieux dans de nombreux pays (des centaines de bar à chicha auraient ouvert aux États-Unis[2]), cette mode s'oppose à la généralisation des lois interdisant de fumer dans les lieux publics.
-Au Royaume-Uni, la loi de 2007 interdisant de fumer dans les lieux publics (en) n'a pas empêché la multiplication de ce type d'établissements[3].
-En France, les bars à chicha sont également soumis à l'application de lois similaires interdisant de fumer la chicha à l'intérieur de l'établissement[4], de sorte que la plupart des bars à chichas sont dans l'illégalité et éventuellement sanctionnés par l'administration des douanes et condamnés par les tribunaux[5],[6].
-En Belgique également, il est interdit de fumer dans l'ensemble du secteur Horeca depuis le 1er juillet 2011[7]. 
-Le 21 novembre 2007, plusieurs propriétaires, salariés et clients de bars à chicha en France ont manifesté contre le décret du 1er janvier sur l'interdiction de fumer dans les bars-tabac[8].
-Au Vietnam, Shisha est apparu en 2009. Actuellement, le Vietnam n'interdit pas de fumer la chicha[9],[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la chicha, les lieux où celle-ci est consommée font l'objet de certaines interdictions selon les pays. En dépit d'un certain engouement pour ces lieux dans de nombreux pays (des centaines de bar à chicha auraient ouvert aux États-Unis), cette mode s'oppose à la généralisation des lois interdisant de fumer dans les lieux publics.
+Au Royaume-Uni, la loi de 2007 interdisant de fumer dans les lieux publics (en) n'a pas empêché la multiplication de ce type d'établissements.
+En France, les bars à chicha sont également soumis à l'application de lois similaires interdisant de fumer la chicha à l'intérieur de l'établissement, de sorte que la plupart des bars à chichas sont dans l'illégalité et éventuellement sanctionnés par l'administration des douanes et condamnés par les tribunaux,.
+En Belgique également, il est interdit de fumer dans l'ensemble du secteur Horeca depuis le 1er juillet 2011. 
+Le 21 novembre 2007, plusieurs propriétaires, salariés et clients de bars à chicha en France ont manifesté contre le décret du 1er janvier sur l'interdiction de fumer dans les bars-tabac.
+Au Vietnam, Shisha est apparu en 2009. Actuellement, le Vietnam n'interdit pas de fumer la chicha.
 </t>
         </is>
       </c>
